--- a/data/trans_camb/P23_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,34</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,34</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,38</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-6,06</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,09</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,59</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 1,42</t>
+          <t>-11,9; 2,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 1,13</t>
+          <t>-15,22; -1,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 14,49</t>
+          <t>-8,71; 7,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 2,64</t>
+          <t>-3,1; 16,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 1,84</t>
+          <t>-8,8; 13,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 2,28</t>
+          <t>-10,52; 1,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 0,22</t>
+          <t>-11,24; 1,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -0,79</t>
+          <t>-6,56; 9,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 4,9</t>
+          <t>-10,04; 6,06</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 11,47</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 0,42</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-11,37; -1,82</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,91; 6,24</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 9,79</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 10,62</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-41,91%</t>
+          <t>-39,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-57,58%</t>
+          <t>-63,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>-8,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-31,43%</t>
+          <t>66,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-36,82%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-41,49%</t>
+          <t>-35,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-37,08%</t>
+          <t>-39,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-47,65%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-9,75%</t>
+          <t>-10,08%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>61,78%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-37,37%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-51,67%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>26,99%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>32,73%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-74,94; 23,8</t>
+          <t>-74,88; 39,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-87,0; 27,35</t>
+          <t>-88,87; -2,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 194,21</t>
+          <t>-59,54; 96,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,15; 35,61</t>
+          <t>-22,52; 260,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,83; 29,57</t>
+          <t>-43,02; 156,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,9; 36,01</t>
+          <t>-67,74; 32,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,11; 6,58</t>
+          <t>-72,71; 24,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-72,4; -4,59</t>
+          <t>-46,25; 112,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,71; 56,64</t>
+          <t>-59,42; 77,23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-29,4; 306,97</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-64,08; 8,28</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-74,46; -15,42</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-41,91; 71,52</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-27,27; 111,11</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-25,12; 144,72</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-9,26</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,7</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-7,09</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 3,57</t>
+          <t>-12,97; 2,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 5,97</t>
+          <t>-11,66; 7,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 7,3</t>
+          <t>-2,82; 21,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 16,94</t>
+          <t>-19,33; 7,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 9,33</t>
+          <t>-6,32; 14,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 2,9</t>
+          <t>-0,1; 16,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 7,13</t>
+          <t>-6,83; 9,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 4,23</t>
+          <t>-2,19; 15,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 2,93</t>
+          <t>-17,87; -0,42</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 9,99</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 7,58</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-7,3; 6,06</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 15,34</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-15,35; 0,17</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 8,8</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-29,7%</t>
+          <t>-31,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-27,81%</t>
+          <t>-25,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,76%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39,2%</t>
+          <t>-22,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,22%</t>
+          <t>42,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-10,62%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-18,6%</t>
+          <t>-35,66%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12,21%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-8,57%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>38,06%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-29,2%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>17,44%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,3; 37,01</t>
+          <t>-65,29; 20,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-64,35; 55,42</t>
+          <t>-62,69; 67,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,26; 59,94</t>
+          <t>-16,31; 174,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 107,17</t>
+          <t>-60,92; 44,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 61,4</t>
+          <t>-36,64; 152,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,25; 17,28</t>
+          <t>-0,47; 113,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 47,84</t>
+          <t>-29,18; 63,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 28,73</t>
+          <t>-10,7; 101,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-46,37; 20,13</t>
+          <t>-57,36; -1,55</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-33,5; 95,39</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-21,29; 52,87</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-35,1; 39,88</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-4,76; 101,5</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-53,37; -0,3</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-24,58; 79,16</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>5,77</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,07</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-5,9</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 4,23</t>
+          <t>-14,07; 4,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 5,02</t>
+          <t>-16,8; 2,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 5,84</t>
+          <t>-5,87; 13,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 6,48</t>
+          <t>-14,59; 5,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 2,63</t>
+          <t>-6,4; 12,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 7,08</t>
+          <t>-8,24; 6,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 3,68</t>
+          <t>-11,47; 2,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 1,18</t>
+          <t>-13,71; 1,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 3,99</t>
+          <t>-2,67; 14,09</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; 10,44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-9,86; 2,5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-11,58; -0,24</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,32; 4,93</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 6,82</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 7,57</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-17,85%</t>
+          <t>-17,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-24,1%</t>
+          <t>-26,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,45%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>-16,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-14,2%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>-5,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-8,7%</t>
+          <t>-15,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-18,55%</t>
+          <t>-19,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-7,47%</t>
+          <t>23,25%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-10,68%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-20,53%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-3,94%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,94; 20,59</t>
+          <t>-44,51; 23,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,02; 25,31</t>
+          <t>-53,83; 19,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,53; 27,17</t>
+          <t>-19,48; 62,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 24,9</t>
+          <t>-41,93; 20,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 10,44</t>
+          <t>-24,6; 65,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 27,08</t>
+          <t>-24,24; 23,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 14,54</t>
+          <t>-33,19; 8,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 5,0</t>
+          <t>-38,36; 4,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 15,52</t>
+          <t>-10,1; 61,97</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-21,89; 39,78</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-30,8; 10,06</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-37,01; -0,48</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-23,17; 18,82</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-18,96; 28,67</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-15,95; 32,73</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,41</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3,92</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,97</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6,17</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>5,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 8,19</t>
+          <t>-6,71; 9,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 8,14</t>
+          <t>-7,29; 7,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 17,97</t>
+          <t>-4,62; 11,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 12,88</t>
+          <t>2,08; 19,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 7,21</t>
+          <t>-3,73; 14,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 8,69</t>
+          <t>-0,65; 13,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 8,35</t>
+          <t>-5,4; 8,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 5,79</t>
+          <t>-2,55; 12,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 10,65</t>
+          <t>-6,46; 9,72</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 14,94</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 8,97</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 5,83</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 10,33</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 12,33</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 12,31</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>47,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>20,4%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15,97%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>20,23%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>20,89%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>19,35%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 51,48</t>
+          <t>-28,75; 59,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,85; 52,77</t>
+          <t>-31,69; 48,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,95; 115,77</t>
+          <t>-19,87; 76,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 48,64</t>
+          <t>6,94; 101,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 28,0</t>
+          <t>-11,21; 58,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 33,44</t>
+          <t>-2,11; 53,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 37,67</t>
+          <t>-16,75; 29,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 26,74</t>
+          <t>-7,83; 49,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 47,51</t>
+          <t>-16,69; 30,38</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 58,79</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 42,28</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-17,16; 27,03</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 46,04</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 46,19</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 46,51</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,57</t>
+          <t>10,18</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>8,98</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>-2,43</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>9,56</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 8,45</t>
+          <t>-6,51; 9,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 7,66</t>
+          <t>-8,15; 8,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,61; 19,76</t>
+          <t>0,89; 19,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 11,0</t>
+          <t>-5,38; 13,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 4,25</t>
+          <t>-5,53; 14,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 12,82</t>
+          <t>-5,43; 12,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 7,15</t>
+          <t>-10,8; 5,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 3,48</t>
+          <t>-1,76; 18,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,95; 13,83</t>
+          <t>-12,74; 8,15</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-8,42; 10,02</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 8,69</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-6,82; 4,44</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 16,56</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-6,18; 8,02</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 8,9</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>49,01%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-12,6%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>-8,71%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-7,52%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>-6,06%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>10,14%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>36,67%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 50,3</t>
+          <t>-24,42; 55,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-34,88; 45,45</t>
+          <t>-32,76; 50,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6,01; 117,85</t>
+          <t>1,64; 115,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 39,44</t>
+          <t>-15,76; 54,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 15,36</t>
+          <t>-14,94; 54,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 49,5</t>
+          <t>-15,56; 46,01</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 29,85</t>
+          <t>-29,97; 22,86</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-27,92; 15,1</t>
+          <t>-4,36; 66,97</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,89; 60,97</t>
+          <t>-26,95; 24,65</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-20,75; 31,44</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-10,31; 37,23</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-23,38; 19,3</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 71,12</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-16,44; 24,62</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-10,97; 28,45</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>14,36</t>
+          <t>15,72</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-6,99</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-8,86</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>18,23</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>-6,94</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>7,05</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-3,26</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>17,04</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-3,41</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>4,71</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 14,84</t>
+          <t>-5,6; 15,37</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 10,67</t>
+          <t>-9,67; 10,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,39; 24,87</t>
+          <t>3,83; 25,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 1,39</t>
+          <t>-11,08; 12,37</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,05; -0,39</t>
+          <t>-9,85; 12,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 14,39</t>
+          <t>-15,06; 1,35</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 4,2</t>
+          <t>-15,91; 2,12</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 2,36</t>
+          <t>7,19; 29,32</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,22; 16,01</t>
+          <t>-20,08; 4,04</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-6,09; 18,45</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-7,86; 4,57</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-9,94; 3,77</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>9,7; 25,99</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-12,39; 5,12</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 12,97</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-25,93%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-32,87%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>-25,32%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-8,13%</t>
+          <t>-26,44%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-19,76%</t>
+          <t>67,9%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>-15,4%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>22,67%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-6,07%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-14,52%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>75,93%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-8,63%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 130,46</t>
+          <t>-30,31; 123,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,38; 91,64</t>
+          <t>-43,38; 82,72</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>3,48; 210,11</t>
+          <t>7,98; 206,51</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-49,62; 6,93</t>
+          <t>-29,42; 46,84</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-55,76; 0,7</t>
+          <t>-26,37; 49,46</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 63,73</t>
+          <t>-47,02; 6,96</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-33,43; 22,04</t>
+          <t>-49,65; 10,94</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 13,2</t>
+          <t>22,42; 130,64</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>0,85; 82,32</t>
+          <t>-39,58; 10,76</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-16,36; 76,2</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-31,44; 24,41</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-37,61; 19,65</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>35,76; 134,3</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-27,18; 14,9</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-11,02; 48,26</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-2,97</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 1,98</t>
+          <t>-4,75; 2,3</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 1,01</t>
+          <t>-6,55; 1,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,55; 8,7</t>
+          <t>2,74; 10,94</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 3,63</t>
+          <t>-2,77; 6,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,86; -0,33</t>
+          <t>-1,34; 7,39</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,96</t>
+          <t>-2,46; 4,08</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,87</t>
+          <t>-6,49; -0,25</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,01; -0,69</t>
+          <t>1,62; 9,39</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 5,32</t>
+          <t>-5,77; 2,71</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 7,68</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 2,02</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; -0,83</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 9,23</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 3,36</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 6,44</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-8,42%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-14,88%</t>
+          <t>-14,82%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-14,34%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-2,52%</t>
+          <t>-12,28%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-14,5%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>-5,44%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>13,3%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-13,25%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>27,36%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>13,74%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 12,42</t>
+          <t>-23,26; 13,55</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 5,81</t>
+          <t>-31,45; 7,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2,34; 50,39</t>
+          <t>12,56; 64,42</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 15,22</t>
+          <t>-10,02; 28,15</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -1,37</t>
+          <t>-5,09; 34,16</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 16,46</t>
+          <t>-8,79; 16,98</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 8,96</t>
+          <t>-23,69; -1,08</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-24,97; -3,43</t>
+          <t>5,59; 38,75</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 24,67</t>
+          <t>-16,92; 9,53</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 31,23</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-12,01; 9,42</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-23,36; -3,85</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>14,24; 42,92</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-9,58; 12,65</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 26,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
